--- a/data/ausgrid/groups.xlsx
+++ b/data/ausgrid/groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUM\#thesisdepressing\multi-agent_power-systems\data\ausgrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8F60C7-86D0-4A6E-8BDE-33DAE442868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F013E5D6-DFDD-4689-8278-45617C5B9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CEBF3109-A3EB-4102-941D-4E9548524EA6}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>group</t>
   </si>
@@ -38,6 +38,48 @@
   </si>
   <si>
     <t>5,58,286,292</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>__init__</t>
+  </si>
+  <si>
+    <t>group_1</t>
+  </si>
+  <si>
+    <t>group_2</t>
+  </si>
+  <si>
+    <t>liquid hope</t>
+  </si>
+  <si>
+    <t>assassin's creed</t>
+  </si>
+  <si>
+    <t>24,74,193,289</t>
+  </si>
+  <si>
+    <t>5,23,286,292</t>
+  </si>
+  <si>
+    <t>7,13,155,245</t>
+  </si>
+  <si>
+    <t>9,19,111,151</t>
+  </si>
+  <si>
+    <t>group_3</t>
+  </si>
+  <si>
+    <t>clean agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,73,110,144 </t>
+  </si>
+  <si>
+    <t>14,69,101,119</t>
   </si>
 </sst>
 </file>
@@ -521,8 +563,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,42 +921,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94153059-D933-46DE-9340-C9B7290A2EFE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ausgrid/groups.xlsx
+++ b/data/ausgrid/groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUM\#thesisdepressing\multi-agent_power-systems\data\ausgrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F013E5D6-DFDD-4689-8278-45617C5B9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4520CC-7BC9-47DE-8A9D-4A44FEE86B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CEBF3109-A3EB-4102-941D-4E9548524EA6}"/>
   </bookViews>
@@ -20,29 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>prosumers</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>group_0</t>
   </si>
   <si>
-    <t>13,50,158,297</t>
-  </si>
-  <si>
-    <t>5,58,286,292</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>__init__</t>
   </si>
   <si>
@@ -58,35 +40,65 @@
     <t>assassin's creed</t>
   </si>
   <si>
-    <t>24,74,193,289</t>
-  </si>
-  <si>
-    <t>5,23,286,292</t>
-  </si>
-  <si>
-    <t>7,13,155,245</t>
-  </si>
-  <si>
-    <t>9,19,111,151</t>
-  </si>
-  <si>
     <t>group_3</t>
   </si>
   <si>
-    <t>clean agents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,73,110,144 </t>
-  </si>
-  <si>
-    <t>14,69,101,119</t>
+    <t>group_4</t>
+  </si>
+  <si>
+    <t>dream team</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Prosumers</t>
+  </si>
+  <si>
+    <t>Consumers</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>clean agents (&lt;150 focus)</t>
+  </si>
+  <si>
+    <t>110, 119, 193, 256</t>
+  </si>
+  <si>
+    <t>69, 184, 189, 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 73, 110, 144 </t>
+  </si>
+  <si>
+    <t>7, 13, 155, 245</t>
+  </si>
+  <si>
+    <t>24, 74, 193, 289</t>
+  </si>
+  <si>
+    <t>13, 50, 158, 297</t>
+  </si>
+  <si>
+    <t>5, 58, 286, 292</t>
+  </si>
+  <si>
+    <t>5, 23, 286, 292</t>
+  </si>
+  <si>
+    <t>9, 19, 111, 151</t>
+  </si>
+  <si>
+    <t>14, 69, 101, 119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +229,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,9 +583,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,90 +949,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94153059-D933-46DE-9340-C9B7290A2EFE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="16.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
